--- a/Sigma-to.xlsx
+++ b/Sigma-to.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10658115\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10658115\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A19070-6D85-40BC-A2AA-A74CCE083AA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF11BDF8-740F-4B47-B418-ECA7D552D058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{944EA57C-5561-4518-B06B-BF099D768DBF}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="882">
   <si>
     <t>Sigma Rules</t>
   </si>
@@ -2677,13 +2677,29 @@
   </si>
   <si>
     <t>Sigma-To</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> The list has been composed and prepared by @akky2892 - Akash Sarode.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2714,6 +2730,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2821,7 +2851,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2852,6 +2882,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3403,10 +3434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E532490-54DF-4A4A-8FFB-3781DD0D5D3D}">
-  <dimension ref="L5"/>
+  <dimension ref="L5:L25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3420,10 +3451,15 @@
         <v>880</v>
       </c>
     </row>
+    <row r="25" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="12" t="s">
+        <v>881</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
